--- a/Selenium/data/CreateLead.xlsx
+++ b/Selenium/data/CreateLead.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705237E-A181-4C87-B965-57B5BDE9F415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6E18CC85-AEB8-4C03-9B0D-D355FC888BE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="3980" windowWidth="14400" windowHeight="7360" xr2:uid="{F51B3EFC-339A-4784-8E40-C438E7CA7B1E}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14420" windowHeight="10670" xr2:uid="{F51B3EFC-339A-4784-8E40-C438E7CA7B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Company Name</t>
   </si>
@@ -57,6 +53,18 @@
   </si>
   <si>
     <t>Jaya</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>demosalesmanager</t>
+  </si>
+  <si>
+    <t>crmsfa</t>
   </si>
 </sst>
 </file>
@@ -72,12 +80,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,8 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,44 +423,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE874C1-E68E-4A65-A298-948DE9D3AFED}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
